--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220522_110100.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220522_110100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -730,7 +730,7 @@
     <t>SM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>YAMYAM</t>
@@ -776,9 +776,6 @@
   </si>
   <si>
     <t>에버그로우</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>YUE HUA</t>
@@ -1363,7 +1360,7 @@
         <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1415,7 +1412,7 @@
         <v>229</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1441,7 +1438,7 @@
         <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1467,7 +1464,7 @@
         <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1493,7 +1490,7 @@
         <v>232</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1519,7 +1516,7 @@
         <v>233</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1545,7 +1542,7 @@
         <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1571,7 +1568,7 @@
         <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1597,7 +1594,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1649,7 +1646,7 @@
         <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1701,7 +1698,7 @@
         <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1727,7 +1724,7 @@
         <v>239</v>
       </c>
       <c r="H21" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1753,7 +1750,7 @@
         <v>230</v>
       </c>
       <c r="H22" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1779,7 +1776,7 @@
         <v>240</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1805,7 +1802,7 @@
         <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1831,7 +1828,7 @@
         <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1857,7 +1854,7 @@
         <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1883,7 +1880,7 @@
         <v>243</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1909,7 +1906,7 @@
         <v>232</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1935,7 +1932,7 @@
         <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1987,7 +1984,7 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2013,7 +2010,7 @@
         <v>230</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2065,7 +2062,7 @@
         <v>230</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2143,7 +2140,7 @@
         <v>247</v>
       </c>
       <c r="H37" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2195,7 +2192,7 @@
         <v>248</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2247,7 +2244,7 @@
         <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2273,7 +2270,7 @@
         <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2299,7 +2296,7 @@
         <v>234</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2325,7 +2322,7 @@
         <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2351,7 +2348,7 @@
         <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2377,7 +2374,7 @@
         <v>251</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2403,7 +2400,7 @@
         <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2429,7 +2426,7 @@
         <v>241</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2481,7 +2478,7 @@
         <v>252</v>
       </c>
       <c r="H50" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2507,7 +2504,7 @@
         <v>241</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2585,7 +2582,7 @@
         <v>238</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2611,7 +2608,7 @@
         <v>240</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2637,7 +2634,7 @@
         <v>234</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2663,7 +2660,7 @@
         <v>253</v>
       </c>
       <c r="H57" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2686,10 +2683,10 @@
         <v>205</v>
       </c>
       <c r="G58" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2712,10 +2709,10 @@
         <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H59" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2738,10 +2735,10 @@
         <v>207</v>
       </c>
       <c r="G60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2767,7 +2764,7 @@
         <v>252</v>
       </c>
       <c r="H61" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2793,7 +2790,7 @@
         <v>230</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2845,7 +2842,7 @@
         <v>243</v>
       </c>
       <c r="H64" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2897,7 +2894,7 @@
         <v>236</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2920,10 +2917,10 @@
         <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2946,10 +2943,10 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H68" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2998,10 +2995,10 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3027,7 +3024,7 @@
         <v>241</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3079,7 +3076,7 @@
         <v>251</v>
       </c>
       <c r="H73" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3102,10 +3099,10 @@
         <v>212</v>
       </c>
       <c r="G74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H74" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3128,10 +3125,10 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H75" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3154,10 +3151,10 @@
         <v>212</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3183,7 +3180,7 @@
         <v>241</v>
       </c>
       <c r="H77" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3206,10 +3203,10 @@
         <v>214</v>
       </c>
       <c r="G78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3232,10 +3229,10 @@
         <v>215</v>
       </c>
       <c r="G79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3261,7 +3258,7 @@
         <v>227</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3313,7 +3310,7 @@
         <v>241</v>
       </c>
       <c r="H82" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3339,7 +3336,7 @@
         <v>230</v>
       </c>
       <c r="H83" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3362,10 +3359,10 @@
         <v>216</v>
       </c>
       <c r="G84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3417,7 +3414,7 @@
         <v>252</v>
       </c>
       <c r="H86" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3440,10 +3437,10 @@
         <v>219</v>
       </c>
       <c r="G87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H87" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3495,7 +3492,7 @@
         <v>241</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3521,7 +3518,7 @@
         <v>252</v>
       </c>
       <c r="H90" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3544,10 +3541,10 @@
         <v>221</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H91" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3570,10 +3567,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3599,7 +3596,7 @@
         <v>236</v>
       </c>
       <c r="H93" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3625,7 +3622,7 @@
         <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3651,7 +3648,7 @@
         <v>241</v>
       </c>
       <c r="H95" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3700,10 +3697,10 @@
         <v>223</v>
       </c>
       <c r="G97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H97" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3752,10 +3749,10 @@
         <v>225</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H99" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3781,7 +3778,7 @@
         <v>241</v>
       </c>
       <c r="H100" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3807,7 +3804,7 @@
         <v>232</v>
       </c>
       <c r="H101" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
